--- a/data/trans_orig/P45C_R1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R1-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2FBE9AD-D868-49C6-80D4-2C50DA1C7B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B57A1941-D168-4796-9933-52678F428BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{823BB765-DB61-414A-856F-67BA7CBFBD0F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCD6A943-81EE-42E9-9D7D-343EED73DF59}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="404">
   <si>
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,1138 +77,1168 @@
     <t>2,71%</t>
   </si>
   <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2015 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
   </si>
   <si>
     <t>98,11%</t>
@@ -1632,7 +1662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF15F4F5-FBB1-48D3-8334-47FE82F80D7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288D6A0E-4307-4F58-BAB5-3C46F27B1DD0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1819,7 +1849,7 @@
         <v>478</v>
       </c>
       <c r="I5" s="7">
-        <v>457965</v>
+        <v>457964</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1870,7 +1900,7 @@
         <v>487</v>
       </c>
       <c r="I6" s="7">
-        <v>465690</v>
+        <v>465689</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1959,7 +1989,7 @@
         <v>687</v>
       </c>
       <c r="D8" s="7">
-        <v>719287</v>
+        <v>719286</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2010,7 +2040,7 @@
         <v>701</v>
       </c>
       <c r="D9" s="7">
-        <v>733589</v>
+        <v>733588</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2072,7 +2102,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2081,13 +2111,13 @@
         <v>17972</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -2096,13 +2126,13 @@
         <v>23835</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,13 +2147,13 @@
         <v>631993</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>641</v>
@@ -2132,13 +2162,13 @@
         <v>670792</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1247</v>
@@ -2147,13 +2177,13 @@
         <v>1302785</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,7 +2239,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2221,13 +2251,13 @@
         <v>11557</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2236,13 +2266,13 @@
         <v>8446</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2251,13 +2281,13 @@
         <v>20003</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,13 +2302,13 @@
         <v>506441</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>492</v>
@@ -2287,13 +2317,13 @@
         <v>505170</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>964</v>
@@ -2302,13 +2332,13 @@
         <v>1011611</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,10 +2591,10 @@
         <v>8913</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>113</v>
@@ -2612,13 +2642,13 @@
         <v>1167098</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,10 +2734,10 @@
         <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -2716,13 +2746,13 @@
         <v>111492</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2767,13 @@
         <v>3213723</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>3234</v>
@@ -2752,13 +2782,13 @@
         <v>3314648</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>6388</v>
@@ -2767,13 +2797,13 @@
         <v>6528372</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,7 +2859,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2851,7 +2881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA58F76-E003-4BAA-A844-0A15835B7006}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC396B96-3C64-441C-A7F3-8A4B39806C26}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2868,7 +2898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2975,13 +3005,13 @@
         <v>5870</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2990,13 +3020,13 @@
         <v>7862</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3005,13 +3035,13 @@
         <v>13732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3056,13 @@
         <v>444791</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>410</v>
@@ -3041,13 +3071,13 @@
         <v>418166</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>847</v>
@@ -3056,13 +3086,13 @@
         <v>862957</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3160,13 @@
         <v>18407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3145,13 +3175,13 @@
         <v>8845</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3160,13 +3190,13 @@
         <v>27252</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3211,13 @@
         <v>663915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7">
         <v>560</v>
@@ -3196,13 +3226,13 @@
         <v>599482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>1205</v>
@@ -3211,13 +3241,13 @@
         <v>1263397</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3315,13 @@
         <v>3955</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3300,13 +3330,13 @@
         <v>15367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3315,13 +3345,13 @@
         <v>19321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,28 +3366,28 @@
         <v>675067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>647</v>
       </c>
       <c r="I11" s="7">
-        <v>689089</v>
+        <v>689090</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>1291</v>
@@ -3366,10 +3396,10 @@
         <v>1364157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>187</v>
@@ -3399,7 +3429,7 @@
         <v>661</v>
       </c>
       <c r="I12" s="7">
-        <v>704456</v>
+        <v>704457</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3428,7 +3458,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3443,10 +3473,10 @@
         <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3455,13 +3485,13 @@
         <v>13737</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -3470,13 +3500,13 @@
         <v>23379</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3521,13 @@
         <v>598628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -3506,13 +3536,13 @@
         <v>598188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>1055</v>
@@ -3521,13 +3551,13 @@
         <v>1196817</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3625,13 @@
         <v>3225</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3610,13 +3640,13 @@
         <v>4433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3625,13 +3655,13 @@
         <v>7657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3676,13 @@
         <v>424133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>400</v>
@@ -3661,13 +3691,13 @@
         <v>441227</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>788</v>
@@ -3676,10 +3706,10 @@
         <v>865361</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>116</v>
@@ -3750,13 +3780,13 @@
         <v>2914</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3765,13 +3795,13 @@
         <v>6017</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -3780,13 +3810,13 @@
         <v>8930</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3831,13 @@
         <v>548501</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>673</v>
@@ -3816,13 +3846,13 @@
         <v>721014</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>1166</v>
@@ -3831,13 +3861,13 @@
         <v>1269515</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3935,13 @@
         <v>44012</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -3920,13 +3950,13 @@
         <v>56260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>95</v>
@@ -3935,13 +3965,13 @@
         <v>100272</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3986,13 @@
         <v>3355036</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H23" s="7">
         <v>3212</v>
@@ -3971,28 +4001,28 @@
         <v>3467167</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="M23" s="7">
         <v>6352</v>
       </c>
       <c r="N23" s="7">
-        <v>6822203</v>
+        <v>6822202</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,7 +4064,7 @@
         <v>6447</v>
       </c>
       <c r="N24" s="7">
-        <v>6922475</v>
+        <v>6922474</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4048,7 +4078,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4070,7 +4100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0513C08-82D2-4512-96F4-BE6B4BD9D345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB4FE6E-43F8-43DE-B610-A947091EC954}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4087,7 +4117,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4197,10 +4227,10 @@
         <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4209,13 +4239,13 @@
         <v>12224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4224,13 +4254,13 @@
         <v>18812</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4275,13 @@
         <v>408224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H5" s="7">
         <v>391</v>
@@ -4260,13 +4290,13 @@
         <v>382505</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>775</v>
@@ -4275,13 +4305,13 @@
         <v>790730</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4379,13 @@
         <v>7057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4364,13 +4394,13 @@
         <v>6517</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4379,13 +4409,13 @@
         <v>13573</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4430,13 @@
         <v>578223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H8" s="7">
         <v>571</v>
@@ -4415,13 +4445,13 @@
         <v>556087</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>1126</v>
@@ -4430,13 +4460,13 @@
         <v>1134311</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4534,13 @@
         <v>6598</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4519,13 +4549,13 @@
         <v>2880</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4534,13 +4564,13 @@
         <v>9478</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4585,13 @@
         <v>659495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>658</v>
@@ -4570,13 +4600,13 @@
         <v>653916</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>119</v>
       </c>
       <c r="M11" s="7">
         <v>1286</v>
@@ -4585,13 +4615,13 @@
         <v>1313411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,7 +4677,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4659,13 +4689,13 @@
         <v>2088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4674,13 +4704,13 @@
         <v>9967</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4689,13 +4719,13 @@
         <v>12055</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4740,13 @@
         <v>640788</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>587</v>
@@ -4725,13 +4755,13 @@
         <v>632741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>1164</v>
@@ -4740,13 +4770,13 @@
         <v>1273529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4844,13 @@
         <v>4035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4829,13 +4859,13 @@
         <v>4653</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4844,13 +4874,13 @@
         <v>8688</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4895,13 @@
         <v>470413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>426</v>
@@ -4880,13 +4910,13 @@
         <v>488574</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>844</v>
@@ -4895,13 +4925,13 @@
         <v>958988</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4999,13 @@
         <v>4437</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4984,13 +5014,13 @@
         <v>3283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4999,13 +5029,13 @@
         <v>7720</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5050,13 @@
         <v>577325</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>644</v>
@@ -5035,13 +5065,13 @@
         <v>764861</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>1258</v>
@@ -5050,13 +5080,13 @@
         <v>1342186</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,10 +5157,10 @@
         <v>51</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -5139,13 +5169,13 @@
         <v>39523</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>311</v>
+        <v>162</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -5157,10 +5187,10 @@
         <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>314</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5205,13 @@
         <v>3334469</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H23" s="7">
         <v>3277</v>
@@ -5190,13 +5220,13 @@
         <v>3478685</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>316</v>
+        <v>43</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>318</v>
+        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>6453</v>
@@ -5208,7 +5238,7 @@
         <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>320</v>
@@ -5267,7 +5297,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5289,7 +5319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D3FE9E-7FC4-41C3-B23A-8D0D2EEE7E5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391274A8-9C62-4086-8B12-740195699619}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5413,13 +5443,13 @@
         <v>6643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5428,13 +5458,13 @@
         <v>4823</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5443,13 +5473,13 @@
         <v>11465</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>54</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,10 +5494,10 @@
         <v>371036</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>116</v>
@@ -5479,13 +5509,13 @@
         <v>350134</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>372</v>
@@ -5494,13 +5524,13 @@
         <v>721171</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>63</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5598,13 @@
         <v>9327</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5583,13 +5613,13 @@
         <v>13128</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5598,13 +5628,13 @@
         <v>22455</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5649,13 @@
         <v>419069</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
@@ -5634,13 +5664,13 @@
         <v>485289</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>746</v>
@@ -5649,13 +5679,13 @@
         <v>904359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5753,13 @@
         <v>11283</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5738,13 +5768,13 @@
         <v>11435</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5753,13 +5783,13 @@
         <v>22719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5804,13 @@
         <v>542355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>358</v>
       </c>
       <c r="H11" s="7">
         <v>832</v>
@@ -5789,13 +5819,13 @@
         <v>572041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>359</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M11" s="7">
         <v>1366</v>
@@ -5804,13 +5834,13 @@
         <v>1114395</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,7 +5896,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5878,13 +5908,13 @@
         <v>12978</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -5893,7 +5923,7 @@
         <v>13222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>106</v>
@@ -5908,13 +5938,13 @@
         <v>26200</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5959,13 @@
         <v>709866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>1118</v>
@@ -5944,7 +5974,7 @@
         <v>731994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
@@ -5959,13 +5989,13 @@
         <v>1441860</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6063,13 @@
         <v>13572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>123</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -6048,13 +6078,13 @@
         <v>8777</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>55</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -6063,13 +6093,13 @@
         <v>22349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6114,13 @@
         <v>585568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>987</v>
@@ -6099,13 +6129,13 @@
         <v>587640</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
         <v>1636</v>
@@ -6114,13 +6144,13 @@
         <v>1173208</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,13 +6218,13 @@
         <v>3827</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>58</v>
+        <v>367</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6203,13 +6233,13 @@
         <v>4425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -6218,13 +6248,13 @@
         <v>8252</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6239,13 +6269,13 @@
         <v>692443</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>68</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
         <v>1699</v>
@@ -6254,13 +6284,13 @@
         <v>1021562</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>389</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>2717</v>
@@ -6269,13 +6299,13 @@
         <v>1714006</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,10 +6376,10 @@
         <v>90</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>227</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>255</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -6358,13 +6388,13 @@
         <v>55810</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -6373,13 +6403,13 @@
         <v>113441</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,10 +6427,10 @@
         <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>398</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>235</v>
+        <v>399</v>
       </c>
       <c r="H23" s="7">
         <v>5288</v>
@@ -6409,13 +6439,13 @@
         <v>3748660</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>65</v>
+        <v>381</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="M23" s="7">
         <v>8607</v>
@@ -6424,13 +6454,13 @@
         <v>7068997</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +6516,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C_R1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B57A1941-D168-4796-9933-52678F428BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9EE9B4E-853B-4120-B988-7818B4158FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCD6A943-81EE-42E9-9D7D-343EED73DF59}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D2284D3-A011-4B28-B71C-84482358B232}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="384">
   <si>
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,1138 +77,1096 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>98,67%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>99,8%</t>
   </si>
   <si>
     <t>99,52%</t>
@@ -1217,40 +1175,22 @@
     <t>99,74%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288D6A0E-4307-4F58-BAB5-3C46F27B1DD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43362B9A-5C87-4AF2-90A3-C79A89889BE7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1989,7 +1929,7 @@
         <v>687</v>
       </c>
       <c r="D8" s="7">
-        <v>719286</v>
+        <v>719287</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2040,7 +1980,7 @@
         <v>701</v>
       </c>
       <c r="D9" s="7">
-        <v>733588</v>
+        <v>733589</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2102,7 +2042,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2150,7 +2090,7 @@
         <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>60</v>
@@ -2582,7 +2522,7 @@
         <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -2591,7 +2531,7 @@
         <v>8913</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>112</v>
@@ -2630,10 +2570,10 @@
         <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>1172</v>
@@ -2642,7 +2582,7 @@
         <v>1167098</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>120</v>
@@ -2881,7 +2821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC396B96-3C64-441C-A7F3-8A4B39806C26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C174D8A-C896-4D30-909C-83A099CC57B5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3005,13 +2945,13 @@
         <v>5870</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3020,13 +2960,13 @@
         <v>7862</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3035,13 +2975,13 @@
         <v>13732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +2996,13 @@
         <v>444791</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>410</v>
@@ -3071,13 +3011,13 @@
         <v>418166</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>847</v>
@@ -3086,13 +3026,13 @@
         <v>862957</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3100,13 @@
         <v>18407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3175,13 +3115,13 @@
         <v>8845</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3190,13 +3130,13 @@
         <v>27252</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3151,13 @@
         <v>663915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>560</v>
@@ -3226,13 +3166,13 @@
         <v>599482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>1205</v>
@@ -3241,13 +3181,13 @@
         <v>1263397</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3255,13 @@
         <v>3955</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3330,13 +3270,13 @@
         <v>15367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3345,13 +3285,13 @@
         <v>19321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,16 +3303,16 @@
         <v>644</v>
       </c>
       <c r="D11" s="7">
-        <v>675067</v>
+        <v>675066</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>647</v>
@@ -3381,13 +3321,13 @@
         <v>689090</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>1291</v>
@@ -3396,13 +3336,13 @@
         <v>1364157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,7 +3354,7 @@
         <v>648</v>
       </c>
       <c r="D12" s="7">
-        <v>679022</v>
+        <v>679021</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3470,13 +3410,13 @@
         <v>9643</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3485,13 +3425,13 @@
         <v>13737</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -3500,13 +3440,13 @@
         <v>23379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3461,13 @@
         <v>598628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -3536,13 +3476,13 @@
         <v>598188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>1055</v>
@@ -3551,10 +3491,10 @@
         <v>1196817</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>96</v>
@@ -3625,13 +3565,13 @@
         <v>3225</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3640,13 +3580,13 @@
         <v>4433</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3655,13 +3595,13 @@
         <v>7657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3616,13 @@
         <v>424133</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>400</v>
@@ -3691,13 +3631,13 @@
         <v>441227</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>788</v>
@@ -3706,13 +3646,13 @@
         <v>865361</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,10 +3753,10 @@
         <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3771,13 @@
         <v>548501</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>673</v>
@@ -3846,13 +3786,13 @@
         <v>721014</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>1166</v>
@@ -3861,13 +3801,13 @@
         <v>1269515</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3875,13 @@
         <v>44012</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -3950,13 +3890,13 @@
         <v>56260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M22" s="7">
         <v>95</v>
@@ -3965,13 +3905,13 @@
         <v>100272</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3926,13 @@
         <v>3355036</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H23" s="7">
         <v>3212</v>
@@ -4001,28 +3941,28 @@
         <v>3467167</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="M23" s="7">
         <v>6352</v>
       </c>
       <c r="N23" s="7">
-        <v>6822202</v>
+        <v>6822203</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,7 +4004,7 @@
         <v>6447</v>
       </c>
       <c r="N24" s="7">
-        <v>6922474</v>
+        <v>6922475</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4100,7 +4040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB4FE6E-43F8-43DE-B610-A947091EC954}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE610E6-BCB3-45E1-9EB4-14C379B443D0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4117,7 +4057,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4224,13 +4164,13 @@
         <v>6588</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4239,13 +4179,13 @@
         <v>12224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4254,13 +4194,13 @@
         <v>18812</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4215,13 @@
         <v>408224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>391</v>
@@ -4290,13 +4230,13 @@
         <v>382505</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="M5" s="7">
         <v>775</v>
@@ -4305,13 +4245,13 @@
         <v>790730</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4319,13 @@
         <v>7057</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4394,13 +4334,13 @@
         <v>6517</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4409,13 +4349,13 @@
         <v>13573</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4370,13 @@
         <v>578223</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H8" s="7">
         <v>571</v>
@@ -4445,13 +4385,13 @@
         <v>556087</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>1126</v>
@@ -4460,7 +4400,7 @@
         <v>1134311</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>271</v>
@@ -4534,7 +4474,7 @@
         <v>6598</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>273</v>
@@ -4552,10 +4492,10 @@
         <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4564,13 +4504,13 @@
         <v>9478</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4525,13 @@
         <v>659495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>658</v>
@@ -4600,13 +4540,13 @@
         <v>653916</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>1286</v>
@@ -4615,13 +4555,13 @@
         <v>1313411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4629,13 @@
         <v>2088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4704,13 +4644,13 @@
         <v>9967</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4719,13 +4659,13 @@
         <v>12055</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4680,13 @@
         <v>640788</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>587</v>
@@ -4755,13 +4695,13 @@
         <v>632741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>1164</v>
@@ -4770,13 +4710,13 @@
         <v>1273529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4784,13 @@
         <v>4035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4859,13 +4799,13 @@
         <v>4653</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4874,13 +4814,13 @@
         <v>8688</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4835,13 @@
         <v>470413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>426</v>
@@ -4910,13 +4850,13 @@
         <v>488574</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>844</v>
@@ -4925,13 +4865,13 @@
         <v>958988</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +4939,13 @@
         <v>4437</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>145</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5014,13 +4954,13 @@
         <v>3283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5029,13 +4969,13 @@
         <v>7720</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +4990,13 @@
         <v>577325</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>644</v>
@@ -5065,13 +5005,13 @@
         <v>764861</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>1258</v>
@@ -5080,13 +5020,13 @@
         <v>1342186</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,10 +5097,10 @@
         <v>51</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -5169,13 +5109,13 @@
         <v>39523</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -5187,10 +5127,10 @@
         <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,10 +5148,10 @@
         <v>59</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H23" s="7">
         <v>3277</v>
@@ -5220,13 +5160,13 @@
         <v>3478685</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7">
         <v>6453</v>
@@ -5238,10 +5178,10 @@
         <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>320</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,7 +5259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391274A8-9C62-4086-8B12-740195699619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA5D53B-0BCA-4B15-9E14-C46A9C6B8C05}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5336,7 +5276,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5443,13 +5383,13 @@
         <v>6643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5458,13 +5398,13 @@
         <v>4823</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5473,13 +5413,13 @@
         <v>11465</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>54</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,10 +5434,10 @@
         <v>371036</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>116</v>
@@ -5509,13 +5449,13 @@
         <v>350134</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>372</v>
@@ -5524,13 +5464,13 @@
         <v>721171</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>63</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5538,13 @@
         <v>9327</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5613,13 +5553,13 @@
         <v>13128</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5628,13 +5568,13 @@
         <v>22455</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5589,13 @@
         <v>419069</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
@@ -5664,13 +5604,13 @@
         <v>485289</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>746</v>
@@ -5679,13 +5619,13 @@
         <v>904359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5693,13 @@
         <v>11283</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5768,13 +5708,13 @@
         <v>11435</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5783,13 +5723,13 @@
         <v>22719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5744,13 @@
         <v>542355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>832</v>
@@ -5819,13 +5759,13 @@
         <v>572041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="M11" s="7">
         <v>1366</v>
@@ -5834,13 +5774,13 @@
         <v>1114395</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,10 +5851,10 @@
         <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -5923,13 +5863,13 @@
         <v>13222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5938,13 +5878,13 @@
         <v>26200</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,10 +5902,10 @@
         <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>1118</v>
@@ -5974,13 +5914,13 @@
         <v>731994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>21</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="M14" s="7">
         <v>1770</v>
@@ -5989,13 +5929,13 @@
         <v>1441860</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6003,13 @@
         <v>13572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>123</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -6078,13 +6018,13 @@
         <v>8777</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -6093,13 +6033,13 @@
         <v>22349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>264</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>39</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6054,13 @@
         <v>585568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>987</v>
@@ -6129,13 +6069,13 @@
         <v>587640</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>1636</v>
@@ -6144,13 +6084,13 @@
         <v>1173208</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,13 +6158,13 @@
         <v>3827</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>370</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6233,13 +6173,13 @@
         <v>4425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>175</v>
+        <v>371</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>386</v>
+        <v>145</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -6248,13 +6188,13 @@
         <v>8252</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6209,13 @@
         <v>692443</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>1699</v>
@@ -6284,13 +6224,13 @@
         <v>1021562</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>389</v>
+        <v>152</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>2717</v>
@@ -6299,13 +6239,13 @@
         <v>1714006</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,10 +6316,10 @@
         <v>90</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -6388,13 +6328,13 @@
         <v>55810</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -6403,13 +6343,13 @@
         <v>113441</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,10 +6367,10 @@
         <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>399</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>5288</v>
@@ -6439,13 +6379,13 @@
         <v>3748660</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>401</v>
+        <v>85</v>
       </c>
       <c r="M23" s="7">
         <v>8607</v>
@@ -6454,13 +6394,13 @@
         <v>7068997</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>403</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P45C_R1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9EE9B4E-853B-4120-B988-7818B4158FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A130ABC-F33D-4077-A1A4-AF5A68A0915D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D2284D3-A011-4B28-B71C-84482358B232}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B9E484FB-BBF3-4583-99DE-7C4E3993907A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="394">
   <si>
     <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,95%</t>
@@ -191,7 +191,7 @@
     <t>98,75%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,92%</t>
@@ -242,7 +242,7 @@
     <t>98,86%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,23%</t>
@@ -299,7 +299,7 @@
     <t>98,88%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -356,841 +356,871 @@
     <t>99,23%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,36%</t>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>0,56%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>98,07%</t>
   </si>
   <si>
     <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Población según si han sufrido a lo largo de este último año alguna quemadura solar con ampollas en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
   </si>
 </sst>
 </file>
@@ -1602,8 +1632,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43362B9A-5C87-4AF2-90A3-C79A89889BE7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61038630-8522-4C1B-9568-942AEFC3ED6D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1959,7 +1989,7 @@
         <v>1266</v>
       </c>
       <c r="N8" s="7">
-        <v>1332122</v>
+        <v>1332121</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2010,7 +2040,7 @@
         <v>1291</v>
       </c>
       <c r="N9" s="7">
-        <v>1357932</v>
+        <v>1357931</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2495,10 +2525,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>5122</v>
+        <v>2327</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2510,10 +2540,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>3792</v>
+        <v>2718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2522,16 +2552,16 @@
         <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>8913</v>
+        <v>5046</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>112</v>
@@ -2546,10 +2576,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>517</v>
+        <v>300</v>
       </c>
       <c r="D20" s="7">
-        <v>496288</v>
+        <v>289200</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>114</v>
@@ -2561,28 +2591,28 @@
         <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>655</v>
+        <v>368</v>
       </c>
       <c r="I20" s="7">
-        <v>670809</v>
+        <v>340216</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>1172</v>
+        <v>668</v>
       </c>
       <c r="N20" s="7">
-        <v>1167098</v>
+        <v>629415</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>120</v>
@@ -2597,10 +2627,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="D21" s="7">
-        <v>501410</v>
+        <v>291527</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2612,10 +2642,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>659</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>674601</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2627,10 +2657,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1181</v>
+        <v>673</v>
       </c>
       <c r="N21" s="7">
-        <v>1176011</v>
+        <v>634461</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2644,46 +2674,46 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>55141</v>
+        <v>2794</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>56351</v>
+        <v>1074</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>127</v>
       </c>
       <c r="M22" s="7">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>111492</v>
+        <v>3868</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>128</v>
@@ -2701,10 +2731,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3154</v>
+        <v>217</v>
       </c>
       <c r="D23" s="7">
-        <v>3213723</v>
+        <v>207089</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>131</v>
@@ -2716,10 +2746,10 @@
         <v>133</v>
       </c>
       <c r="H23" s="7">
-        <v>3234</v>
+        <v>287</v>
       </c>
       <c r="I23" s="7">
-        <v>3314648</v>
+        <v>330593</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>134</v>
@@ -2728,22 +2758,22 @@
         <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" s="7">
+        <v>504</v>
+      </c>
+      <c r="N23" s="7">
+        <v>537682</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="7">
-        <v>6388</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6528372</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,63 +2782,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>288</v>
+      </c>
+      <c r="I24" s="7">
+        <v>331667</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>508</v>
+      </c>
+      <c r="N24" s="7">
+        <v>541550</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>52</v>
+      </c>
+      <c r="D25" s="7">
+        <v>55141</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="7">
+        <v>55</v>
+      </c>
+      <c r="I25" s="7">
+        <v>56351</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="7">
+        <v>107</v>
+      </c>
+      <c r="N25" s="7">
+        <v>111492</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3154</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3213723</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3234</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3314648</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6388</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6528372</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3206</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3268864</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3289</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3370999</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6495</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6639864</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2821,8 +3007,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C174D8A-C896-4D30-909C-83A099CC57B5}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAA42E0-F888-4F93-80C2-22586A552F41}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2838,7 +3024,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,10 +3134,10 @@
         <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2960,13 +3146,13 @@
         <v>7862</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2978,7 +3164,7 @@
         <v>54</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>58</v>
@@ -2999,10 +3185,10 @@
         <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>410</v>
@@ -3011,13 +3197,13 @@
         <v>418166</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>847</v>
@@ -3032,7 +3218,7 @@
         <v>65</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3286,13 @@
         <v>18407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3115,13 +3301,13 @@
         <v>8845</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3130,13 +3316,13 @@
         <v>27252</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3337,13 @@
         <v>663915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>560</v>
@@ -3166,10 +3352,10 @@
         <v>599482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>82</v>
@@ -3181,13 +3367,13 @@
         <v>1263397</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3441,13 @@
         <v>3955</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3270,13 +3456,13 @@
         <v>15367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3285,13 +3471,13 @@
         <v>19321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3492,13 @@
         <v>675066</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>647</v>
@@ -3321,10 +3507,10 @@
         <v>689090</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>29</v>
@@ -3336,13 +3522,13 @@
         <v>1364157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3596,13 @@
         <v>9643</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3425,13 +3611,13 @@
         <v>13737</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -3440,13 +3626,13 @@
         <v>23379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3647,13 @@
         <v>598628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -3476,13 +3662,13 @@
         <v>598188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>1055</v>
@@ -3491,10 +3677,10 @@
         <v>1196817</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>96</v>
@@ -3565,13 +3751,13 @@
         <v>3225</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3580,13 +3766,13 @@
         <v>4433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3595,13 +3781,13 @@
         <v>7657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3802,13 @@
         <v>424133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>400</v>
@@ -3631,13 +3817,13 @@
         <v>441227</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>788</v>
@@ -3646,13 +3832,13 @@
         <v>865361</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,43 +3906,43 @@
         <v>2914</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>6017</v>
+        <v>3832</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>8930</v>
+        <v>6745</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,49 +3951,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>493</v>
+        <v>276</v>
       </c>
       <c r="D20" s="7">
-        <v>548501</v>
+        <v>303933</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
-        <v>673</v>
+        <v>335</v>
       </c>
       <c r="I20" s="7">
-        <v>721014</v>
+        <v>345209</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>1166</v>
+        <v>611</v>
       </c>
       <c r="N20" s="7">
-        <v>1269515</v>
+        <v>649143</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,10 +4002,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>496</v>
+        <v>279</v>
       </c>
       <c r="D21" s="7">
-        <v>551415</v>
+        <v>306847</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3831,10 +4017,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>679</v>
+        <v>339</v>
       </c>
       <c r="I21" s="7">
-        <v>727031</v>
+        <v>349041</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3846,10 +4032,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1175</v>
+        <v>618</v>
       </c>
       <c r="N21" s="7">
-        <v>1278445</v>
+        <v>655888</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3863,55 +4049,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>44012</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="H22" s="7">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>56260</v>
+        <v>2185</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M22" s="7">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>100272</v>
+        <v>2185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,49 +4106,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3140</v>
+        <v>217</v>
       </c>
       <c r="D23" s="7">
-        <v>3355036</v>
+        <v>244568</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>116</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
-        <v>3212</v>
+        <v>338</v>
       </c>
       <c r="I23" s="7">
-        <v>3467167</v>
+        <v>375805</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" s="7">
+        <v>555</v>
+      </c>
+      <c r="N23" s="7">
+        <v>620373</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6352</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6822203</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,63 +4157,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>217</v>
+      </c>
+      <c r="D24" s="7">
+        <v>244568</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>340</v>
+      </c>
+      <c r="I24" s="7">
+        <v>377990</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>557</v>
+      </c>
+      <c r="N24" s="7">
+        <v>622558</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>42</v>
+      </c>
+      <c r="D25" s="7">
+        <v>44012</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" s="7">
+        <v>53</v>
+      </c>
+      <c r="I25" s="7">
+        <v>56260</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" s="7">
+        <v>95</v>
+      </c>
+      <c r="N25" s="7">
+        <v>100272</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3140</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3355035</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3212</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3467167</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6352</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6822203</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3182</v>
       </c>
-      <c r="D24" s="7">
-        <v>3399048</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3399047</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3265</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3523427</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6447</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6922475</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4040,8 +4382,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE610E6-BCB3-45E1-9EB4-14C379B443D0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C7E5FD-0FCD-4B8B-A19D-3CCE060C2AEA}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4057,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4164,13 +4506,13 @@
         <v>6588</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4179,7 +4521,7 @@
         <v>12224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>71</v>
@@ -4194,13 +4536,13 @@
         <v>18812</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4557,13 @@
         <v>408224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="H5" s="7">
         <v>391</v>
@@ -4230,7 +4572,7 @@
         <v>382505</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -4245,13 +4587,13 @@
         <v>790730</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4661,13 @@
         <v>7057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4334,13 +4676,13 @@
         <v>6517</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4349,13 +4691,13 @@
         <v>13573</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4712,13 @@
         <v>578223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>571</v>
@@ -4385,13 +4727,13 @@
         <v>556087</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>1126</v>
@@ -4400,13 +4742,13 @@
         <v>1134311</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4816,13 @@
         <v>6598</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4489,13 +4831,13 @@
         <v>2880</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4504,10 +4846,10 @@
         <v>9478</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>39</v>
@@ -4525,13 +4867,13 @@
         <v>659495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H11" s="7">
         <v>658</v>
@@ -4540,13 +4882,13 @@
         <v>653916</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>1286</v>
@@ -4555,13 +4897,13 @@
         <v>1313411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4971,13 @@
         <v>2088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>107</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4644,7 +4986,7 @@
         <v>9967</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>94</v>
@@ -4659,10 +5001,10 @@
         <v>12055</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>71</v>
@@ -4680,13 +5022,13 @@
         <v>640788</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
         <v>587</v>
@@ -4695,7 +5037,7 @@
         <v>632741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>97</v>
@@ -4710,13 +5052,13 @@
         <v>1273529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +5126,13 @@
         <v>4035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4799,13 +5141,13 @@
         <v>4653</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4817,10 +5159,10 @@
         <v>36</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +5177,13 @@
         <v>470413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>426</v>
@@ -4850,13 +5192,13 @@
         <v>488574</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>844</v>
@@ -4868,10 +5210,10 @@
         <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,49 +5275,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2763</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
-        <v>4437</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3283</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7</v>
-      </c>
       <c r="N19" s="7">
-        <v>7720</v>
+        <v>4782</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,49 +5326,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>614</v>
+        <v>319</v>
       </c>
       <c r="D20" s="7">
-        <v>577325</v>
+        <v>326717</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>302</v>
+        <v>84</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>644</v>
+        <v>347</v>
       </c>
       <c r="I20" s="7">
-        <v>764861</v>
+        <v>370728</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>47</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>1258</v>
+        <v>666</v>
       </c>
       <c r="N20" s="7">
-        <v>1342186</v>
+        <v>697445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,10 +5377,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>618</v>
+        <v>321</v>
       </c>
       <c r="D21" s="7">
-        <v>581762</v>
+        <v>329480</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5050,10 +5392,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>647</v>
+        <v>349</v>
       </c>
       <c r="I21" s="7">
-        <v>768144</v>
+        <v>372747</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5065,10 +5407,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1265</v>
+        <v>670</v>
       </c>
       <c r="N21" s="7">
-        <v>1349906</v>
+        <v>702227</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5082,55 +5424,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>30803</v>
+        <v>1674</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>307</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>39523</v>
+        <v>1264</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>70326</v>
+        <v>2938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,49 +5481,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3176</v>
+        <v>295</v>
       </c>
       <c r="D23" s="7">
-        <v>3334469</v>
+        <v>250608</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>310</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
-        <v>3277</v>
+        <v>297</v>
       </c>
       <c r="I23" s="7">
-        <v>3478685</v>
+        <v>394132</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
-        <v>6453</v>
+        <v>592</v>
       </c>
       <c r="N23" s="7">
-        <v>6813154</v>
+        <v>644741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>104</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,63 +5532,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>297</v>
+      </c>
+      <c r="D24" s="7">
+        <v>252282</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>298</v>
+      </c>
+      <c r="I24" s="7">
+        <v>395396</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>595</v>
+      </c>
+      <c r="N24" s="7">
+        <v>647679</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>28</v>
+      </c>
+      <c r="D25" s="7">
+        <v>30803</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H25" s="7">
+        <v>38</v>
+      </c>
+      <c r="I25" s="7">
+        <v>39523</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M25" s="7">
+        <v>66</v>
+      </c>
+      <c r="N25" s="7">
+        <v>70326</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3176</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3334469</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3277</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3478685</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6453</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6813154</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3204</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3365272</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3315</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3518208</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6519</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6883480</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5259,8 +5757,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA5D53B-0BCA-4B15-9E14-C46A9C6B8C05}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463AB90E-192D-48E2-B2FC-F1A0D6D5C768}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5276,7 +5774,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5380,46 +5878,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>6643</v>
+        <v>6372</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>4823</v>
+        <v>4321</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>11465</v>
+        <v>10693</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,46 +5929,46 @@
         <v>169</v>
       </c>
       <c r="D5" s="7">
-        <v>371036</v>
+        <v>393615</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>304</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
       </c>
       <c r="I5" s="7">
-        <v>350134</v>
+        <v>308879</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>372</v>
       </c>
       <c r="N5" s="7">
-        <v>721171</v>
+        <v>702494</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,7 +5980,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5497,7 +5995,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5512,7 +6010,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5535,46 +6033,46 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>9327</v>
+        <v>9613</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>13128</v>
+        <v>12019</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>75</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>22455</v>
+        <v>21632</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,46 +6084,46 @@
         <v>297</v>
       </c>
       <c r="D8" s="7">
-        <v>419069</v>
+        <v>413934</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
       </c>
       <c r="I8" s="7">
-        <v>485289</v>
+        <v>499323</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>746</v>
       </c>
       <c r="N8" s="7">
-        <v>904359</v>
+        <v>913257</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,7 +6135,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5652,7 +6150,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>498417</v>
+        <v>511342</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5667,7 +6165,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>926814</v>
+        <v>934889</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5690,46 +6188,46 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>11283</v>
+        <v>10860</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>11435</v>
+        <v>10884</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>22719</v>
+        <v>21744</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,46 +6239,46 @@
         <v>534</v>
       </c>
       <c r="D11" s="7">
-        <v>542355</v>
+        <v>521723</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>832</v>
       </c>
       <c r="I11" s="7">
-        <v>572041</v>
+        <v>531584</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>347</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>1366</v>
       </c>
       <c r="N11" s="7">
-        <v>1114395</v>
+        <v>1053306</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>348</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,7 +6290,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>553638</v>
+        <v>532583</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5807,7 +6305,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5822,7 +6320,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1137114</v>
+        <v>1075050</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5845,46 +6343,46 @@
         <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>12978</v>
+        <v>12186</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>351</v>
+        <v>95</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>13222</v>
+        <v>12295</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
       </c>
       <c r="N13" s="7">
-        <v>26200</v>
+        <v>24481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>356</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,46 +6394,46 @@
         <v>652</v>
       </c>
       <c r="D14" s="7">
-        <v>709866</v>
+        <v>874473</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>1118</v>
       </c>
       <c r="I14" s="7">
-        <v>731994</v>
+        <v>698853</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>43</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>1770</v>
       </c>
       <c r="N14" s="7">
-        <v>1441860</v>
+        <v>1573326</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>361</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,7 +6445,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722844</v>
+        <v>886659</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5962,7 +6460,7 @@
         <v>1138</v>
       </c>
       <c r="I15" s="7">
-        <v>745216</v>
+        <v>711148</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5977,7 +6475,7 @@
         <v>1802</v>
       </c>
       <c r="N15" s="7">
-        <v>1468060</v>
+        <v>1597807</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6000,46 +6498,46 @@
         <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>13572</v>
+        <v>12676</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>8777</v>
+        <v>8096</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
       </c>
       <c r="N16" s="7">
-        <v>22349</v>
+        <v>20772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>264</v>
+        <v>368</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,46 +6549,46 @@
         <v>649</v>
       </c>
       <c r="D17" s="7">
-        <v>585568</v>
+        <v>547552</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>370</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H17" s="7">
         <v>987</v>
       </c>
       <c r="I17" s="7">
-        <v>587640</v>
+        <v>539260</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>1636</v>
       </c>
       <c r="N17" s="7">
-        <v>1173208</v>
+        <v>1086812</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,7 +6600,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599140</v>
+        <v>560228</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6117,7 +6615,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>596417</v>
+        <v>547356</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6132,7 +6630,7 @@
         <v>1663</v>
       </c>
       <c r="N18" s="7">
-        <v>1195557</v>
+        <v>1107584</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6152,49 +6650,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>3827</v>
+        <v>2133</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="H19" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>4425</v>
+        <v>3150</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>145</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>8252</v>
+        <v>5283</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,49 +6701,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1018</v>
+        <v>564</v>
       </c>
       <c r="D20" s="7">
-        <v>692443</v>
+        <v>364975</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
-        <v>1699</v>
+        <v>820</v>
       </c>
       <c r="I20" s="7">
-        <v>1021562</v>
+        <v>604625</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="M20" s="7">
-        <v>2717</v>
+        <v>1384</v>
       </c>
       <c r="N20" s="7">
-        <v>1714006</v>
+        <v>969600</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,10 +6752,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1025</v>
+        <v>568</v>
       </c>
       <c r="D21" s="7">
-        <v>696270</v>
+        <v>367108</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6269,10 +6767,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1025987</v>
+        <v>607775</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6284,10 +6782,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1722258</v>
+        <v>974883</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6301,55 +6799,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>57631</v>
+        <v>1450</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>90</v>
+        <v>386</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>378</v>
+        <v>174</v>
       </c>
       <c r="H22" s="7">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>55810</v>
+        <v>931</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>361</v>
+        <v>214</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>379</v>
+        <v>15</v>
       </c>
       <c r="M22" s="7">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>113441</v>
+        <v>2381</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,49 +6856,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3319</v>
+        <v>454</v>
       </c>
       <c r="D23" s="7">
-        <v>3320336</v>
+        <v>280968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>182</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="H23" s="7">
-        <v>5288</v>
+        <v>879</v>
       </c>
       <c r="I23" s="7">
-        <v>3748660</v>
+        <v>424900</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>26</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
-        <v>8607</v>
+        <v>1333</v>
       </c>
       <c r="N23" s="7">
-        <v>7068997</v>
+        <v>705868</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,63 +6907,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282418</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708249</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7">
+        <v>55289</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="7">
+        <v>70</v>
+      </c>
+      <c r="I25" s="7">
+        <v>51696</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M25" s="7">
+        <v>120</v>
+      </c>
+      <c r="N25" s="7">
+        <v>106985</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3319</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3397241</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5288</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3607424</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8607</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7004665</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3369</v>
       </c>
-      <c r="D24" s="7">
-        <v>3377967</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3452530</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5358</v>
       </c>
-      <c r="I24" s="7">
-        <v>3804470</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3659120</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8727</v>
       </c>
-      <c r="N24" s="7">
-        <v>7182438</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7111650</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
